--- a/biology/Botanique/Osteospermum/Osteospermum.xlsx
+++ b/biology/Botanique/Osteospermum/Osteospermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Osteospermum est un genre de plante à fleurs de la famille des Asteraceae, dont certaines espèces ont été placées dans les genres Dimorphotheca, Tripteris et Oligocarpus. Plusieurs d'entre elles sont aussi connues sous le nom de marguerite d'Afrique, marguerite du Cap ou souci pluvial[réf. nécessaire]. Cette plante pousse généralement en bord de mer pour fleurir de mai à octobre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osteospermum est un genre de plante à fleurs de la famille des Asteraceae, dont certaines espèces ont été placées dans les genres Dimorphotheca, Tripteris et Oligocarpus. Plusieurs d'entre elles sont aussi connues sous le nom de marguerite d'Afrique, marguerite du Cap ou souci pluvial[réf. nécessaire]. Cette plante pousse généralement en bord de mer pour fleurir de mai à octobre.
 Ce sont des plantes vivaces herbacées ou arbustives.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (31 octobre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (31 octobre 2018) :
 Osteospermum acanthospermum (DC.) Norlindh
 Osteospermum aciphyllum DC.
 Osteospermum acutifolium (Hutch.) Norlindh
@@ -593,7 +607,7 @@
 Osteospermum triquetrum L. fil.
 Osteospermum vaillantii (DC.) Norlindh
 Osteospermum volkensii (O. Hoffm.) Norlindh
-Selon ITIS      (31 octobre 2018)[4] :
+Selon ITIS      (31 octobre 2018) :
 Osteospermum calendulaceum L. f.
 Osteospermum ecklonis (DC.) Norl.
 Osteospermum fruticosum (L.) Norl.
